--- a/DatosEsp1/SPFixture1213.xlsx
+++ b/DatosEsp1/SPFixture1213.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="24">
   <si>
     <t>Celta</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>La Coruna</t>
   </si>
 </sst>
 </file>
@@ -407,561 +419,671 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
         <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
         <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
         <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
         <v>6</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
         <v>38</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>38</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>38</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>38</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>38</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>38</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
         <v>12</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C60" t="s">
         <v>9</v>
       </c>
     </row>
